--- a/02. 웹과 Github 기본/06_python_library/06_corona_analysis/EXCEL/20210929_14_vaccine_bloomberg.xlsx
+++ b/02. 웹과 Github 기본/06_python_library/06_corona_analysis/EXCEL/20210929_14_vaccine_bloomberg.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Enough_percent_people:</t>
+          <t>Enough_percent_people</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
